--- a/Docs/ShiftEcoView.xlsx
+++ b/Docs/ShiftEcoView.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tihom\ichir0roie-GIME\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070D6659-4149-4FEF-9161-32FDDCF00075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD80052-E5D6-45D7-BFD5-9EC189CC2953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DC67457-C035-448D-9A64-E0399B7146D4}"/>
+    <workbookView xWindow="-4580" yWindow="18510" windowWidth="21650" windowHeight="11210" xr2:uid="{6DC67457-C035-448D-9A64-E0399B7146D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>りゅ</t>
   </si>
@@ -163,15 +163,151 @@
   </si>
   <si>
     <t>うぉ</t>
+  </si>
+  <si>
+    <t>ryu</t>
+  </si>
+  <si>
+    <t>ju</t>
+  </si>
+  <si>
+    <t>ryo</t>
+  </si>
+  <si>
+    <t>dhi</t>
+  </si>
+  <si>
+    <t>bya</t>
+  </si>
+  <si>
+    <t>myo</t>
+  </si>
+  <si>
+    <t>byo</t>
+  </si>
+  <si>
+    <t>sha</t>
+  </si>
+  <si>
+    <t>cho</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>kyu</t>
+  </si>
+  <si>
+    <t>kyo</t>
+  </si>
+  <si>
+    <t>sho</t>
+  </si>
+  <si>
+    <t>myu</t>
+  </si>
+  <si>
+    <t>kya</t>
+  </si>
+  <si>
+    <t>shu</t>
+  </si>
+  <si>
+    <t>jo</t>
+  </si>
+  <si>
+    <t>thi</t>
+  </si>
+  <si>
+    <t>gyo</t>
+  </si>
+  <si>
+    <t>chu</t>
+  </si>
+  <si>
+    <t>nyu</t>
+  </si>
+  <si>
+    <t>je</t>
+  </si>
+  <si>
+    <t>fo</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>hyo</t>
+  </si>
+  <si>
+    <t>cha</t>
+  </si>
+  <si>
+    <t>fe</t>
+  </si>
+  <si>
+    <t>byu</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>gyu</t>
+  </si>
+  <si>
+    <t>uxi</t>
+  </si>
+  <si>
+    <t>uxo</t>
+  </si>
+  <si>
+    <t>dyu</t>
+  </si>
+  <si>
+    <t>hya</t>
+  </si>
+  <si>
+    <t>pyo</t>
+  </si>
+  <si>
+    <t>rya</t>
+  </si>
+  <si>
+    <t>gya</t>
+  </si>
+  <si>
+    <t>nyo</t>
+  </si>
+  <si>
+    <t>uxe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -187,7 +323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -276,133 +412,139 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <left style="dashDotDot">
+        <color auto="1"/>
+      </left>
+      <right style="dashDotDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color auto="1"/>
+      </left>
+      <right style="dashDotDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDotDot">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDotDot">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color auto="1"/>
+      </left>
+      <right style="dashDotDot">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDotDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDotDot">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
+      <left style="dashDotDot">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDotDot">
+        <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDotDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDotDot">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -410,101 +552,86 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
+      <left style="dashDotDot">
+        <color auto="1"/>
+      </left>
+      <right style="dashDotDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDotDot">
+        <color auto="1"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="dashDotDot">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <right style="dashDotDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDotDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDotDot">
+        <color auto="1"/>
       </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
+      <left style="dashDotDot">
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,87 +639,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,300 +1060,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E142D4-EF54-4F47-93D7-143C09B3FF17}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="B14:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="12" width="7.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="8.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="22"/>
-      <c r="B3" s="2" t="s">
+    <row r="14" spans="2:13" ht="15" thickBot="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="5"/>
+      <c r="C15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="2:13" ht="15" thickBot="1">
+      <c r="B16" s="5"/>
+      <c r="C16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="24"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="22"/>
-      <c r="B4" s="7" t="s">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="5"/>
+      <c r="C17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" thickBot="1">
+      <c r="B18" s="5"/>
+      <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="24"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="14" t="s">
+      <c r="L18" s="17"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="5"/>
+      <c r="C19" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="30"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="2:13" ht="15" thickBot="1">
+      <c r="B20" s="5"/>
+      <c r="C20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="22"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="L20" s="17"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="2:13" ht="15" thickBot="1">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="5"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="2:13" ht="15" thickBot="1">
+      <c r="B23" s="5"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="5"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="2:13" ht="15" thickBot="1">
+      <c r="B25" s="5"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="5"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="35"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="2:13" ht="15" thickBot="1">
+      <c r="B27" s="5"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="2:13" ht="15" thickBot="1">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="5"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="2:13" ht="15" thickBot="1">
+      <c r="B30" s="5"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="22"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="5"/>
+      <c r="C31" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="2:13" ht="15" thickBot="1">
+      <c r="B32" s="5"/>
+      <c r="C32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
+      <c r="E32" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="5"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="2:13" ht="15" thickBot="1">
+      <c r="B34" s="5"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="22"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="22"/>
-      <c r="B12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="2:13" ht="20.5" customHeight="1">
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/ShiftEcoView.xlsx
+++ b/Docs/ShiftEcoView.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tihom\ichir0roie-GIME\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD80052-E5D6-45D7-BFD5-9EC189CC2953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87AA08C-3552-4F0A-B43C-50BEB99D96D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4580" yWindow="18510" windowWidth="21650" windowHeight="11210" xr2:uid="{6DC67457-C035-448D-9A64-E0399B7146D4}"/>
+    <workbookView xWindow="-90" yWindow="9760" windowWidth="21650" windowHeight="11210" xr2:uid="{6DC67457-C035-448D-9A64-E0399B7146D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1062,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E142D4-EF54-4F47-93D7-143C09B3FF17}">
   <dimension ref="B14:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1564,7 +1561,7 @@
       <c r="M35" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="1.2204724409448819" right="0.23622047244094491" top="1.1417322834645669" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="130" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>